--- a/biology/Zoologie/Arlequinette_jaune/Arlequinette_jaune.xlsx
+++ b/biology/Zoologie/Arlequinette_jaune/Arlequinette_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acontia trabealis
 L’Arlequinette jaune (Acontia trabealis) est une espèce de lépidoptères (papillons) de la famille des Noctuidae.
@@ -512,20 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par Giovanni Antonio Scopoli en 1763[1], sous le nom de Phalaena trabealis. La localité-type est la Carniole. L'holotype de la collection Scopoli n'a pas été préservé.[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par Giovanni Antonio Scopoli en 1763, sous le nom de Phalaena trabealis. La localité-type est la Carniole. L'holotype de la collection Scopoli n'a pas été préservé.[réf. nécessaire]
 L'espèce est aujourd'hui placée dans le genre Acontia et le sous-genre Emmelia : on peut donc écrire Acontia (Emmelia) trabealis.
-Synonymie
-Selon Funet[2] :
-Phalaena trabealis Scopoli, 1763 – protonyme
-Phalaena arabica Hufnagel, 1766[3]
-Phalaena Pyralis sulphuralis Linnaeus, 1767[4]
-Noctua sulphurea [Schiffermüller], 1775[5]
-Tinea arlequinetta Geoffroy, 1785[6]
-Phalaena Noctua trabeata Borkhausen, 1790[7]
-Bombyx lugubris Fabricius, 1793[8]
-Erastria pardalina Walker, 1865[9]</t>
+</t>
         </is>
       </c>
     </row>
@@ -550,10 +555,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Funet :
+Phalaena trabealis Scopoli, 1763 – protonyme
+Phalaena arabica Hufnagel, 1766
+Phalaena Pyralis sulphuralis Linnaeus, 1767
+Noctua sulphurea [Schiffermüller], 1775
+Tinea arlequinetta Geoffroy, 1785
+Phalaena Noctua trabeata Borkhausen, 1790
+Bombyx lugubris Fabricius, 1793
+Erastria pardalina Walker, 1865</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arlequinette_jaune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arlequinette_jaune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Œuf : vert, allongé, en forme de cône.
@@ -563,37 +614,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arlequinette_jaune</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arlequinette_jaune</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les larves se nourrissent de liserons (Convolvulus) dont le liseron des champs (Convolvulus arvensis).
-L'imago vole de mai à août.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -615,10 +635,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les larves se nourrissent de liserons (Convolvulus) dont le liseron des champs (Convolvulus arvensis).
+L'imago vole de mai à août.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arlequinette_jaune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arlequinette_jaune</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente dans toute l'Europe. La chaîne de l'Oural forme la frontière orientale de la répartition.[réf. nécessaire]
 Elle fréquente des habitats aux sols sableux à incultes, riches en graminées.
